--- a/data/UG/EE-BTech.xlsx
+++ b/data/UG/EE-BTech.xlsx
@@ -538,7 +538,7 @@
     <t xml:space="preserve">Internet of Things</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction: Concept, Importance, Interdisciplinary, Challenges, Various applications \smart objects, Major Players/Industry. Standards IoT Architecture: Node structure: Sensing, Processing, Communication Powering Networking: Topologies, Layer/Stack architecture Communication Technologies: Introduction to ZigBee, BLE, WiFi, LTE, IEEE 802.11ah, Discuss data rate, range, power, computations/bandwidth, QoS. Smartness - Signal Processing/Analytics: Impact on Power/Energy savings, dynamic networks, simple case studies. IoT Fabricator: Introduction to Embedded electronics, fabricating electronics, Communication Network requirements, Data processing challenges - recreation, IP/security, Challenges. Hands-on in IoT (Starts in the first week and goes on until end of course): Projects based on some Hardware (Raspberry pi, Arduino, Intel, IITH Mote, Smartphones), Software (Contiki, TinyOS, Android), IoT Fabricator</t>
+    <t xml:space="preserve">Introduction: Concept, Importance, Interdisciplinary, Challenges, Various applications \ smart objects, Major Players/Industry. Standards IoT Architecture: Node structure: Sensing, Processing, Communication Powering Networking: Topologies, Layer/Stack architecture Communication Technologies: Introduction to ZigBee, BLE, WiFi, LTE, IEEE 802.11ah, Discuss data rate, range, power, computations/bandwidth, QoS. Smartness - Signal Processing/Analytics: Impact on Power/Energy savings, dynamic networks, simple case studies. IoT Fabricator: Introduction to Embedded electronics, fabricating electronics, Communication Network requirements, Data processing challenges - recreation, IP/security, Challenges. Hands-on in IoT (Starts in the first week and goes on until end of course): Projects based on some Hardware (Raspberry pi, Arduino, Intel, IITH Mote, Smartphones), Software (Contiki, TinyOS, Android), IoT Fabricator</t>
   </si>
   <si>
     <t xml:space="preserve">Sampling, continuous and discrete-time transforms, z-transforms, finite impulse response (FIR) and infinite impulse response (IIR) filter design, FFT algorithm.</t>
@@ -3121,8 +3121,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
